--- a/data/trans_orig/Q64A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>108.6359523307974</v>
+        <v>109.6858238300402</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>136.5737562198566</v>
+        <v>137.9120000450378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121.6816732417543</v>
+        <v>123.2046451506821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>142.1395184646431</v>
+        <v>142.7038338122647</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>92.80347674449705</v>
+        <v>93.34891912752398</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>94.36346365094684</v>
+        <v>93.5552434882196</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>110.2764706845718</v>
+        <v>109.7051391412574</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>135.5864121740059</v>
+        <v>134.9881193266141</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>105.6188060743874</v>
+        <v>106.6131396772807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124.7570512748534</v>
+        <v>125.0434878135967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119.5352332953671</v>
+        <v>120.1132885012152</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>142.0272134241484</v>
+        <v>142.5054885157977</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>131.0582809092794</v>
+        <v>131.4882927943676</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>168.4029575603268</v>
+        <v>169.9735734470904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150.1679284276237</v>
+        <v>150.8910665604362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170.3823126201412</v>
+        <v>173.0257840096922</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>121.9729723770413</v>
+        <v>122.2723415115683</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>124.6713465161629</v>
+        <v>123.1693561539981</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>138.7078747430332</v>
+        <v>138.5317550193637</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>158.9489572599716</v>
+        <v>160.1592453568459</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>123.4820201729631</v>
+        <v>124.8733023768192</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>146.5861021786988</v>
+        <v>146.332747438259</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139.6411955299567</v>
+        <v>140.8194127774449</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>161.7012666481206</v>
+        <v>162.1138550422864</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>108.4201316943007</v>
+        <v>110.7029869045759</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>130.6890005141784</v>
+        <v>129.2716933709948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>117.6674120044288</v>
+        <v>118.2637897880806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142.8425380877641</v>
+        <v>143.2747640075862</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>54.42306430351102</v>
+        <v>54.760913239415</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>88.25189836763626</v>
+        <v>89.22107280449426</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>96.83574202610563</v>
+        <v>96.60904655056194</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>111.4944118285533</v>
+        <v>111.5084803806935</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>86.56165017051025</v>
+        <v>87.27066964557642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117.3304632952976</v>
+        <v>119.0201492431156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113.176165504123</v>
+        <v>112.9702169258658</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>132.0904852532028</v>
+        <v>131.4737467685017</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>140.4517598518562</v>
+        <v>140.4632362937903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>162.3259508714567</v>
+        <v>159.6279312406977</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148.6216170640668</v>
+        <v>147.8554009346443</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>175.1789570068284</v>
+        <v>175.6652240918257</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>74.38138456061063</v>
+        <v>74.08557134589434</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>122.2973324988948</v>
+        <v>123.6190029796015</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>131.1504151417371</v>
+        <v>131.7778313714679</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>134.9673168847974</v>
+        <v>135.5630376738071</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>106.2256827793789</v>
+        <v>106.8783966084814</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>139.5803819850955</v>
+        <v>140.9143052998956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>135.4464854614218</v>
+        <v>136.1310961309241</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>153.1675706786089</v>
+        <v>152.2415176681124</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>135.7776036286613</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>153.2392390608839</v>
+        <v>153.2392390608838</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>104.6832929543427</v>
+        <v>103.9568282346446</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>116.2521123298524</v>
+        <v>116.5927962665136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128.985488308109</v>
+        <v>129.466230937392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135.5611818785386</v>
+        <v>135.9818898547257</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>47.60141246777187</v>
+        <v>48.39619461549913</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>81.78660234740742</v>
+        <v>81.83561366340648</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>83.96590675540479</v>
+        <v>87.19024051052074</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>131.8980914142756</v>
+        <v>130.9153379557351</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>98.64325458531351</v>
+        <v>99.19434655907095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109.3220295995274</v>
+        <v>109.0684028811553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123.4460193537283</v>
+        <v>121.7986490235126</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>138.6985123272921</v>
+        <v>141.0129564340054</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>126.4083691319918</v>
+        <v>126.5254402053864</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>145.1539667098855</v>
+        <v>145.2749033100944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>163.2433359603017</v>
+        <v>163.8756061770543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168.3275645823457</v>
+        <v>169.5653829307194</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>78.96102490184319</v>
+        <v>81.49083326345118</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>111.7363920216819</v>
+        <v>110.2114562037447</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>126.3996037790221</v>
+        <v>130.699576833124</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>186.0829825733603</v>
+        <v>186.1385027930661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>118.2962011608059</v>
+        <v>118.2953274463468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>131.576225516133</v>
+        <v>131.6989051953624</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149.8778227049299</v>
+        <v>149.7121245107538</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>167.5894442484403</v>
+        <v>167.4236030952699</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>87.64116717665051</v>
+        <v>87.70226547558261</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>92.40737202583853</v>
+        <v>93.38524254150288</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88.42411599421914</v>
+        <v>88.46167264495134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114.6370967901788</v>
+        <v>113.7880295911574</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>53.94017445942258</v>
+        <v>53.24673352281663</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>51.79358416335735</v>
+        <v>51.90461722062886</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>60.02134649405585</v>
+        <v>60.65269366883037</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>84.915376629297</v>
+        <v>84.7665110149498</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>79.45499575700711</v>
+        <v>79.87337441030171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78.11264636536541</v>
+        <v>77.62776815132622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78.79257445162418</v>
+        <v>78.6056864873588</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>103.2662320795768</v>
+        <v>103.9461690193416</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>103.8941540261784</v>
+        <v>103.8080976493219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>113.9569216961245</v>
+        <v>114.6858837444772</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>107.5972332327076</v>
+        <v>107.8880626727925</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>133.6356675270747</v>
+        <v>134.0785050211558</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>72.84567655242084</v>
+        <v>72.25498096646474</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>69.31986969625842</v>
+        <v>68.66439475911591</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>76.48160348336826</v>
+        <v>75.59544539508686</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>99.58460641235801</v>
+        <v>99.23540383352656</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>92.39244411933825</v>
+        <v>92.04179257118113</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>92.9300223997792</v>
+        <v>93.27155863281148</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>91.07618721587943</v>
+        <v>91.72437128882542</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>116.3619706832525</v>
+        <v>117.2012001097454</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>83.5719135298266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88.94509271362848</v>
+        <v>88.94509271362847</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>65.17856413164114</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>54.525408560571</v>
+        <v>54.89234750787219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>78.5896585291034</v>
+        <v>79.81617275631606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69.36148275987308</v>
+        <v>69.36787806931819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76.27813456300146</v>
+        <v>77.32251469327673</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>54.56346874806945</v>
+        <v>55.46175232522884</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>66.43948361555368</v>
+        <v>67.24628901572248</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>62.72571948455616</v>
+        <v>62.2892268827359</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>74.56280903019075</v>
+        <v>74.72892059006833</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>57.06970140057113</v>
+        <v>57.82472044133048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76.17159103547881</v>
+        <v>75.86141740449337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68.85499849433367</v>
+        <v>69.94719477812279</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>78.80228192202208</v>
+        <v>78.58388600516555</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>77.9883183969405</v>
+        <v>77.56117484632557</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>114.5111969755073</v>
+        <v>114.7179634926899</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>103.0495014058779</v>
+        <v>99.94012987606624</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>103.0953541135864</v>
+        <v>102.4009988411626</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>79.29056271987143</v>
+        <v>79.67174003871899</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>99.28574451127368</v>
+        <v>100.5565491041255</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>85.39302010414144</v>
+        <v>85.40985467353616</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>92.88211405344148</v>
+        <v>93.70337855560635</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>73.7074680381656</v>
+        <v>74.55873436161322</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99.93751452337493</v>
+        <v>99.76968913590801</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>88.7609899090689</v>
+        <v>89.89568328448999</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>94.15685906230861</v>
+        <v>94.77531543229124</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>100.1873964337035</v>
+        <v>100.6249871214327</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>118.6097944775666</v>
+        <v>119.1888575154554</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110.9067631306913</v>
+        <v>110.413813972862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128.262969835297</v>
+        <v>128.5619595129866</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>67.29605815321723</v>
+        <v>67.33010255593132</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>79.67720354532904</v>
+        <v>79.47521408741538</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>85.05521198743575</v>
+        <v>85.7980423212807</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>107.17902038679</v>
+        <v>107.4901258159656</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>90.12079615283687</v>
+        <v>89.94139731565313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104.83185126896</v>
+        <v>104.6445725012589</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101.5894216746607</v>
+        <v>101.4518091591955</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>120.6212815433448</v>
+        <v>120.7257480928481</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>109.766593486154</v>
+        <v>110.331216760306</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>131.9210268280949</v>
+        <v>131.6271493516261</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122.4936406435765</v>
+        <v>122.2970706532598</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>140.5575678252644</v>
+        <v>140.6629542882893</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>78.26500382994116</v>
+        <v>78.56874866732927</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>91.80098096100251</v>
+        <v>92.02364630247347</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>97.41973237575453</v>
+        <v>97.48035944464</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>116.8690237671118</v>
+        <v>117.386612120922</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>97.50806995928788</v>
+        <v>97.50911840966319</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>114.1725368231755</v>
+        <v>114.1724420512596</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110.349601208841</v>
+        <v>110.0285535964824</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>128.6950960291752</v>
+        <v>128.8864639058832</v>
       </c>
     </row>
     <row r="22">
